--- a/somfit_reports_app/www/Report template_somfit_MP.xlsx
+++ b/somfit_reports_app/www/Report template_somfit_MP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s4548745\Desktop\ACU\ACU_SPRINT_Sleep\Report templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s4548745\Desktop\ACU\ACU_SPRINT_Sleep\somfit_reports_app\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CCC167-462A-43C2-9FED-2C9CB64F6D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA345FB-0E70-410A-AACB-BEB288F0074A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{76E57436-7828-490E-9B39-280DBAE6617A}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{76E57436-7828-490E-9B39-280DBAE6617A}"/>
   </bookViews>
   <sheets>
     <sheet name="Report - Short" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>Unscored (%)</t>
+  </si>
+  <si>
+    <t>N1 (min)</t>
+  </si>
+  <si>
+    <t>N2 (min)</t>
+  </si>
+  <si>
+    <t>N1 (%)</t>
+  </si>
+  <si>
+    <t>N2 (%)</t>
   </si>
 </sst>
 </file>
@@ -5977,7 +5989,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59500739-25B9-46F8-8303-DC00891B6F27}">
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:AW6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5998,13 +6010,13 @@
     <col min="23" max="23" width="12.5546875" customWidth="1"/>
     <col min="24" max="24" width="15.77734375" customWidth="1"/>
     <col min="25" max="26" width="14" customWidth="1"/>
-    <col min="27" max="27" width="11.88671875" customWidth="1"/>
-    <col min="28" max="31" width="12" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" customWidth="1"/>
-    <col min="33" max="45" width="12" customWidth="1"/>
+    <col min="27" max="29" width="11.88671875" customWidth="1"/>
+    <col min="30" max="33" width="12" customWidth="1"/>
+    <col min="34" max="36" width="11.5546875" customWidth="1"/>
+    <col min="37" max="49" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="28" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" s="28" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
@@ -6087,85 +6099,97 @@
         <v>84</v>
       </c>
       <c r="AB1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AO1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AP1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AN1" s="28" t="s">
+      <c r="AR1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AS1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AP1" s="28" t="s">
+      <c r="AT1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AQ1" s="28" t="s">
+      <c r="AU1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AR1" s="28" t="s">
+      <c r="AV1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AS1" s="28" t="s">
+      <c r="AW1" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
       <c r="N6"/>

--- a/somfit_reports_app/www/Report template_somfit_MP.xlsx
+++ b/somfit_reports_app/www/Report template_somfit_MP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s4548745\Desktop\ACU\ACU_SPRINT_Sleep\somfit_reports_app\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s4548745\Desktop\ACU\ACU_SPRINT_Sleep\Report templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA345FB-0E70-410A-AACB-BEB288F0074A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED976B61-C0F4-41B7-B836-D39674BE2B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{76E57436-7828-490E-9B39-280DBAE6617A}"/>
   </bookViews>
@@ -317,13 +317,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +407,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -433,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -491,6 +498,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -503,6 +513,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +620,7 @@
             <c:numRef>
               <c:f>Figures!$A$2:$A$202</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>d/mm/yyyy;@</c:formatCode>
                 <c:ptCount val="201"/>
               </c:numCache>
             </c:numRef>
@@ -652,7 +664,7 @@
             <c:numRef>
               <c:f>Figures!$A$2:$A$202</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>d/mm/yyyy;@</c:formatCode>
                 <c:ptCount val="201"/>
               </c:numCache>
             </c:numRef>
@@ -698,7 +710,7 @@
             <c:numRef>
               <c:f>Figures!$A$2:$A$202</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>d/mm/yyyy;@</c:formatCode>
                 <c:ptCount val="201"/>
               </c:numCache>
             </c:numRef>
@@ -1102,7 +1114,7 @@
             <c:numRef>
               <c:f>Figures!$A$2:$A$203</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>d/mm/yyyy;@</c:formatCode>
                 <c:ptCount val="202"/>
               </c:numCache>
             </c:numRef>
@@ -1789,7 +1801,7 @@
             <c:numRef>
               <c:f>Figures!$A$2:$A$202</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>d/mm/yyyy;@</c:formatCode>
                 <c:ptCount val="201"/>
               </c:numCache>
             </c:numRef>
@@ -2597,15 +2609,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>78106</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>630555</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>116550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2697,13 +2709,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>811533</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>163871</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2758,13 +2770,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>563794</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2826,13 +2838,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1018226</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1313541</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2934,14 +2946,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>739020</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:colOff>697110</xdr:colOff>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>171045</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2972,15 +2984,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:colOff>588645</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>449539</xdr:colOff>
+      <xdr:colOff>720684</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>213120</xdr:rowOff>
+      <xdr:rowOff>211215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3008,8 +3020,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5707380" y="274320"/>
-          <a:ext cx="853399" cy="396000"/>
+          <a:off x="5646420" y="43815"/>
+          <a:ext cx="865464" cy="388380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3032,13 +3044,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>700920</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>169140</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3366,18 +3378,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF86B646-CAF6-473E-9E5F-FA6562A84B8A}">
-  <dimension ref="A1:J254"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="10.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="10.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.109375" style="1"/>
     <col min="11" max="16384" width="9.109375" style="1" collapsed="1"/>
   </cols>
@@ -3389,17 +3400,17 @@
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3427,7 +3438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="11" t="s">
         <v>4</v>
       </c>
@@ -3441,7 +3452,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -3461,7 +3472,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" s="10" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -3481,7 +3492,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" s="10" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
@@ -3500,8 +3511,8 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" s="10" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:9" s="10" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="20">
@@ -3520,8 +3531,8 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" s="10" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:9" s="10" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="20">
@@ -3539,8 +3550,8 @@
       <c r="G13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" s="10" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:9" s="10" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D14" s="20">
@@ -3559,7 +3570,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3580,7 +3591,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="14"/>
       <c r="D16" s="11" t="s">
@@ -3602,23 +3613,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="10" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="10" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="1:9" s="10" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="1:9" s="10" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="13"/>
@@ -3647,8 +3658,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="10" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:9" s="10" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="13"/>
@@ -3677,8 +3688,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="10" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:9" s="10" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="13"/>
@@ -3707,8 +3718,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="14"/>
@@ -3737,8 +3748,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="D23" s="15" t="s">
         <v>11</v>
@@ -3801,53 +3812,60 @@
     <row r="58" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+    </row>
     <row r="62" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
+      <c r="A62" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-    </row>
-    <row r="65" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-    </row>
-    <row r="66" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+    </row>
+    <row r="65" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+    </row>
+    <row r="66" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -3855,7 +3873,7 @@
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
     </row>
-    <row r="67" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -3863,77 +3881,70 @@
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
     </row>
-    <row r="68" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-    </row>
-    <row r="69" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="12"/>
-    </row>
-    <row r="86" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
+    <row r="84" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="12"/>
+    </row>
+    <row r="85" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="17"/>
+    </row>
+    <row r="87" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
     </row>
     <row r="88" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
     </row>
     <row r="89" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
     </row>
     <row r="90" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
     </row>
     <row r="91" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-    </row>
-    <row r="92" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-    </row>
+      <c r="A91" s="30"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+    </row>
+    <row r="92" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4007,15 +4018,22 @@
     <row r="163" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="12"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
+    <row r="166" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+    </row>
+    <row r="168" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="18"/>
+      <c r="B168" s="18"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
     </row>
     <row r="169" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="18"/>
@@ -4121,7 +4139,7 @@
       <c r="E181" s="18"/>
       <c r="F181" s="18"/>
     </row>
-    <row r="182" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" s="4" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="18"/>
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
@@ -4129,7 +4147,7 @@
       <c r="E182" s="18"/>
       <c r="F182" s="18"/>
     </row>
-    <row r="183" spans="1:6" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
@@ -4145,7 +4163,7 @@
       <c r="E184" s="18"/>
       <c r="F184" s="18"/>
     </row>
-    <row r="185" spans="1:6" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
@@ -4153,7 +4171,7 @@
       <c r="E185" s="18"/>
       <c r="F185" s="18"/>
     </row>
-    <row r="186" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
@@ -4186,23 +4204,23 @@
       <c r="F189" s="18"/>
     </row>
     <row r="190" spans="1:6" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="18"/>
-      <c r="B190" s="18"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-    </row>
-    <row r="191" spans="1:6" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-    </row>
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:6" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="192" spans="1:6" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:6" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:6" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+    </row>
     <row r="194" spans="1:6" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
@@ -4683,33 +4701,25 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
     </row>
-    <row r="254" spans="1:6" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A91:F91"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A87:F87"/>
     <mergeCell ref="A88:F88"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A63:I65"/>
+    <mergeCell ref="A62:I64"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="39" max="9" man="1"/>
-    <brk id="92" max="16383" man="1"/>
-    <brk id="96" max="16383" man="1"/>
-    <brk id="191" max="16383" man="1"/>
+    <brk id="38" max="9" man="1"/>
+    <brk id="91" max="16383" man="1"/>
+    <brk id="95" max="16383" man="1"/>
+    <brk id="190" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4721,14 +4731,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="8.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="8.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4829,17 +4838,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="16.33203125" customWidth="1"/>
     <col min="12" max="15" width="13.33203125" customWidth="1"/>
   </cols>
@@ -4891,1093 +4900,873 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-    </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="22"/>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="22"/>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="22"/>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="22"/>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="22"/>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="22"/>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="22"/>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="22"/>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="22"/>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="22"/>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="22"/>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="22"/>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="22"/>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="22"/>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="22"/>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="22"/>
       <c r="C99" s="22"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="22"/>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="22"/>
       <c r="C100" s="22"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="22"/>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="22"/>
       <c r="C101" s="22"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="22"/>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="22"/>
       <c r="C102" s="22"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="22"/>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="22"/>
       <c r="C103" s="22"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="22"/>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="22"/>
       <c r="C104" s="22"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="22"/>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="22"/>
       <c r="C105" s="22"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="22"/>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="22"/>
       <c r="C106" s="22"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="22"/>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="22"/>
       <c r="C107" s="22"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="22"/>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="22"/>
       <c r="C108" s="22"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="22"/>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="22"/>
       <c r="C109" s="22"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="22"/>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="22"/>
       <c r="C110" s="22"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="22"/>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" s="22"/>
       <c r="C111" s="22"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="22"/>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="22"/>
       <c r="C112" s="22"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="22"/>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="22"/>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="22"/>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="22"/>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="22"/>
       <c r="C116" s="22"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="22"/>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="22"/>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" s="22"/>
       <c r="C118" s="22"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="22"/>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" s="22"/>
       <c r="C119" s="22"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="22"/>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" s="22"/>
       <c r="C120" s="22"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="22"/>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" s="22"/>
       <c r="C121" s="22"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="22"/>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122" s="22"/>
       <c r="C122" s="22"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="22"/>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" s="22"/>
       <c r="C123" s="22"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="22"/>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="22"/>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B125" s="22"/>
       <c r="C125" s="22"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="22"/>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" s="22"/>
       <c r="C126" s="22"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="22"/>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="22"/>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128" s="22"/>
       <c r="C128" s="22"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="22"/>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" s="22"/>
       <c r="C129" s="22"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="22"/>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="22"/>
       <c r="C130" s="22"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="22"/>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" s="22"/>
       <c r="C131" s="22"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="22"/>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" s="22"/>
       <c r="C132" s="22"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="22"/>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" s="22"/>
       <c r="C133" s="22"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="22"/>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" s="22"/>
       <c r="C134" s="22"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="22"/>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" s="22"/>
       <c r="C135" s="22"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="22"/>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" s="22"/>
       <c r="C136" s="22"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="22"/>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" s="22"/>
       <c r="C137" s="22"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="22"/>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" s="22"/>
       <c r="C138" s="22"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="22"/>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" s="22"/>
       <c r="C139" s="22"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="22"/>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" s="22"/>
       <c r="C140" s="22"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="22"/>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="22"/>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142" s="22"/>
       <c r="C142" s="22"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="22"/>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" s="22"/>
       <c r="C143" s="22"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="22"/>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144" s="22"/>
       <c r="C144" s="22"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="22"/>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" s="22"/>
       <c r="C145" s="22"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="22"/>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" s="22"/>
       <c r="C146" s="22"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="22"/>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" s="22"/>
       <c r="C147" s="22"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="22"/>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" s="22"/>
       <c r="C148" s="22"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="22"/>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" s="22"/>
       <c r="C149" s="22"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="22"/>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" s="22"/>
       <c r="C150" s="22"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="22"/>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151" s="22"/>
       <c r="C151" s="22"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="22"/>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" s="22"/>
       <c r="C152" s="22"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="22"/>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" s="22"/>
       <c r="C153" s="22"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="22"/>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" s="22"/>
       <c r="C154" s="22"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="22"/>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" s="22"/>
       <c r="C155" s="22"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="22"/>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" s="22"/>
       <c r="C156" s="22"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="22"/>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" s="22"/>
       <c r="C157" s="22"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="22"/>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" s="22"/>
       <c r="C158" s="22"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="22"/>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" s="22"/>
       <c r="C159" s="22"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="22"/>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" s="22"/>
       <c r="C160" s="22"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="22"/>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" s="22"/>
       <c r="C161" s="22"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="22"/>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="22"/>
       <c r="C162" s="22"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="22"/>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" s="22"/>
       <c r="C163" s="22"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="22"/>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164" s="22"/>
       <c r="C164" s="22"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="22"/>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" s="22"/>
       <c r="C165" s="22"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="22"/>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="22"/>
       <c r="C166" s="22"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="22"/>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" s="22"/>
       <c r="C167" s="22"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="22"/>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168" s="22"/>
       <c r="C168" s="22"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="22"/>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" s="22"/>
       <c r="C169" s="22"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="22"/>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="22"/>
       <c r="C170" s="22"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="22"/>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171" s="22"/>
       <c r="C171" s="22"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="22"/>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" s="22"/>
       <c r="C172" s="22"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="22"/>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173" s="22"/>
       <c r="C173" s="22"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="22"/>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174" s="22"/>
       <c r="C174" s="22"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="22"/>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" s="22"/>
       <c r="C175" s="22"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="22"/>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176" s="22"/>
       <c r="C176" s="22"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="22"/>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177" s="22"/>
       <c r="C177" s="22"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="22"/>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" s="22"/>
       <c r="C178" s="22"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="22"/>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" s="22"/>
       <c r="C179" s="22"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="22"/>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" s="22"/>
       <c r="C180" s="22"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="22"/>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" s="22"/>
       <c r="C181" s="22"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="22"/>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" s="22"/>
       <c r="C182" s="22"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="22"/>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" s="22"/>
       <c r="C183" s="22"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="22"/>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" s="22"/>
       <c r="C184" s="22"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="22"/>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185" s="22"/>
       <c r="C185" s="22"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="22"/>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" s="22"/>
       <c r="C186" s="22"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="22"/>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" s="22"/>
       <c r="C187" s="22"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="22"/>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" s="22"/>
       <c r="C188" s="22"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="22"/>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" s="22"/>
       <c r="C189" s="22"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="22"/>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190" s="22"/>
       <c r="C190" s="22"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="22"/>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" s="22"/>
       <c r="C191" s="22"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="22"/>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" s="22"/>
       <c r="C192" s="22"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="22"/>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" s="22"/>
       <c r="C193" s="22"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="22"/>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194" s="22"/>
       <c r="C194" s="22"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="22"/>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195" s="22"/>
       <c r="C195" s="22"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="22"/>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196" s="22"/>
       <c r="C196" s="22"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="22"/>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B197" s="22"/>
       <c r="C197" s="22"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="22"/>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B198" s="22"/>
       <c r="C198" s="22"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="22"/>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B199" s="22"/>
       <c r="C199" s="22"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="22"/>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B200" s="22"/>
       <c r="C200" s="22"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="22"/>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B201" s="22"/>
       <c r="C201" s="22"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="22"/>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B202" s="22"/>
       <c r="C202" s="22"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="22"/>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B203" s="22"/>
       <c r="C203" s="22"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="22"/>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B204" s="22"/>
       <c r="C204" s="22"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="22"/>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B205" s="22"/>
       <c r="C205" s="22"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="22"/>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B206" s="22"/>
       <c r="C206" s="22"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="22"/>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B207" s="22"/>
       <c r="C207" s="22"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="22"/>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B208" s="22"/>
       <c r="C208" s="22"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="22"/>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B209" s="22"/>
       <c r="C209" s="22"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="22"/>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B210" s="22"/>
       <c r="C210" s="22"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="22"/>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B211" s="22"/>
       <c r="C211" s="22"/>
     </row>
@@ -5993,26 +5782,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" style="22" customWidth="1"/>
-    <col min="2" max="3" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12" style="35" customWidth="1"/>
+    <col min="2" max="3" width="13.44140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12" style="23" customWidth="1"/>
     <col min="16" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="12.5546875" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="12.5546875" customWidth="1"/>
+    <col min="23" max="23" width="12.44140625" customWidth="1"/>
     <col min="24" max="24" width="15.77734375" customWidth="1"/>
     <col min="25" max="26" width="14" customWidth="1"/>
-    <col min="27" max="29" width="11.88671875" customWidth="1"/>
+    <col min="27" max="29" width="11.77734375" customWidth="1"/>
     <col min="30" max="33" width="12" customWidth="1"/>
-    <col min="34" max="36" width="11.5546875" customWidth="1"/>
+    <col min="34" max="36" width="11.44140625" customWidth="1"/>
     <col min="37" max="49" width="12" customWidth="1"/>
   </cols>
   <sheetData>
